--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="21240" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="API_List" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Planing API</t>
   </si>
@@ -71,7 +71,10 @@
     <t>Add more tables, entities, define strategy for authorization</t>
   </si>
   <si>
-    <t>Add common security, filter chain, messageSource config, jdbc template config, exception handler</t>
+    <t>Multiple message, Controller Advice (message validation), datasource config</t>
+  </si>
+  <si>
+    <t>Add common security</t>
   </si>
   <si>
     <t>Start API for admin</t>
@@ -88,7 +91,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +111,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -650,148 +646,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="B2:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1626,9 +1622,7 @@
         <v>45267</v>
       </c>
       <c r="D51" s="12"/>
-      <c r="E51" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -1651,9 +1645,7 @@
         <v>45268</v>
       </c>
       <c r="D52" s="12"/>
-      <c r="E52" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -1702,7 +1694,7 @@
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -1727,7 +1719,7 @@
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -1752,7 +1744,7 @@
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>

--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="API_List" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Planing API</t>
   </si>
   <si>
+    <t>Common DB</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>CRUD</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>DeleteFG</t>
+  </si>
+  <si>
+    <t>Default false</t>
+  </si>
+  <si>
+    <t>Not null</t>
   </si>
   <si>
     <t>Category</t>
@@ -77,7 +101,10 @@
     <t>Add common security</t>
   </si>
   <si>
-    <t>Start API for admin</t>
+    <t>Start API for admin (category, product)</t>
+  </si>
+  <si>
+    <t>Search Product with multi conditions</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:T76"/>
+  <dimension ref="B2:AO76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:S53"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1164,7 +1191,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="15.75"/>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:41">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1186,8 +1213,29 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="W3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="14"/>
+    </row>
+    <row r="4" spans="2:41">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1207,8 +1255,27 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="W4" s="4"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="15"/>
+    </row>
+    <row r="5" spans="2:41">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1228,8 +1295,27 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="15"/>
-    </row>
-    <row r="6" ht="15.75" spans="2:20">
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="15"/>
+    </row>
+    <row r="6" ht="15.75" spans="2:41">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1249,187 +1335,300 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="W6" s="6"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="16"/>
+    </row>
+    <row r="7" spans="2:41">
       <c r="B7" s="8"/>
       <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="W7" s="8"/>
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="2:41">
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="W8" s="8"/>
+      <c r="X8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>255</v>
+      </c>
+      <c r="AO8" s="17"/>
+    </row>
+    <row r="9" spans="2:41">
       <c r="B9" s="8"/>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="W9" s="8"/>
+      <c r="X9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AO9" s="17"/>
+    </row>
+    <row r="10" spans="2:41">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="W10" s="8"/>
+      <c r="X10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="2:41">
       <c r="B11" s="8"/>
       <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="W11" s="8"/>
+      <c r="X11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO11" s="17"/>
+    </row>
+    <row r="12" spans="2:41">
       <c r="B12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="W12" s="8"/>
+      <c r="AO12" s="17"/>
+    </row>
+    <row r="13" spans="2:41">
       <c r="B13" s="8"/>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="W13" s="8"/>
+      <c r="AO13" s="17"/>
+    </row>
+    <row r="14" spans="2:41">
       <c r="B14" s="8"/>
       <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="W14" s="8"/>
+      <c r="AO14" s="17"/>
+    </row>
+    <row r="15" spans="2:41">
       <c r="B15" s="8"/>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="W15" s="8"/>
+      <c r="AO15" s="17"/>
+    </row>
+    <row r="16" spans="2:41">
       <c r="B16" s="8"/>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="W16" s="8"/>
+      <c r="AO16" s="17"/>
+    </row>
+    <row r="17" spans="2:41">
       <c r="B17" s="8"/>
       <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="W17" s="8"/>
+      <c r="AO17" s="17"/>
+    </row>
+    <row r="18" spans="2:41">
       <c r="B18" s="8"/>
       <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="W18" s="8"/>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="2:41">
       <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="W19" s="8"/>
+      <c r="AO19" s="17"/>
+    </row>
+    <row r="20" spans="2:41">
       <c r="B20" s="8"/>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="W20" s="8"/>
+      <c r="AO20" s="17"/>
+    </row>
+    <row r="21" spans="2:41">
       <c r="B21" s="8"/>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="W21" s="8"/>
+      <c r="AO21" s="17"/>
+    </row>
+    <row r="22" spans="2:41">
       <c r="B22" s="8"/>
       <c r="T22" s="17"/>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="W22" s="8"/>
+      <c r="AO22" s="17"/>
+    </row>
+    <row r="23" spans="2:41">
       <c r="B23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="W23" s="8"/>
+      <c r="AO23" s="17"/>
+    </row>
+    <row r="24" spans="2:41">
       <c r="B24" s="8"/>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="W24" s="8"/>
+      <c r="AO24" s="17"/>
+    </row>
+    <row r="25" spans="2:41">
       <c r="B25" s="8"/>
       <c r="T25" s="17"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="W25" s="8"/>
+      <c r="AO25" s="17"/>
+    </row>
+    <row r="26" spans="2:41">
       <c r="B26" s="8"/>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="W26" s="8"/>
+      <c r="AO26" s="17"/>
+    </row>
+    <row r="27" spans="2:41">
       <c r="B27" s="8"/>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T27" s="17"/>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="W27" s="8"/>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="2:41">
       <c r="B28" s="8"/>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T28" s="17"/>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="W28" s="8"/>
+      <c r="AO28" s="17"/>
+    </row>
+    <row r="29" spans="2:41">
       <c r="B29" s="8"/>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T29" s="17"/>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="W29" s="8"/>
+      <c r="AO29" s="17"/>
+    </row>
+    <row r="30" spans="2:41">
       <c r="B30" s="8"/>
       <c r="E30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T30" s="17"/>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="W30" s="8"/>
+      <c r="AO30" s="17"/>
+    </row>
+    <row r="31" spans="2:41">
       <c r="B31" s="8"/>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="W31" s="8"/>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="2:41">
       <c r="B32" s="8"/>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="W32" s="8"/>
+      <c r="AO32" s="17"/>
+    </row>
+    <row r="33" spans="2:41">
       <c r="B33" s="8"/>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T33" s="17"/>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="W33" s="8"/>
+      <c r="AO33" s="17"/>
+    </row>
+    <row r="34" spans="2:41">
       <c r="B34" s="8"/>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T34" s="17"/>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="W34" s="8"/>
+      <c r="AO34" s="17"/>
+    </row>
+    <row r="35" spans="2:41">
       <c r="B35" s="8"/>
       <c r="T35" s="17"/>
-    </row>
-    <row r="36" ht="15.75" spans="2:20">
+      <c r="W35" s="8"/>
+      <c r="AO35" s="17"/>
+    </row>
+    <row r="36" ht="15.75" spans="2:41">
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1449,11 +1648,30 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="18"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="18"/>
     </row>
     <row r="42" ht="15.75"/>
     <row r="43" spans="2:20">
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1548,7 +1766,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -1573,7 +1791,7 @@
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -1598,7 +1816,7 @@
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -1669,7 +1887,7 @@
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -1694,7 +1912,7 @@
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -1719,7 +1937,7 @@
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -1743,23 +1961,6 @@
         <v>45272</v>
       </c>
       <c r="D56" s="12"/>
-      <c r="E56" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
       <c r="T56" s="17"/>
     </row>
     <row r="57" spans="2:20">
@@ -1768,21 +1969,6 @@
         <v>45273</v>
       </c>
       <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
       <c r="T57" s="17"/>
     </row>
     <row r="58" spans="2:20">
@@ -1814,7 +2000,9 @@
         <v>45275</v>
       </c>
       <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -1833,14 +2021,40 @@
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="8"/>
+      <c r="C60" s="11">
+        <v>45276</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
       <c r="T60" s="17"/>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="8"/>
+      <c r="C61" s="11">
+        <v>45277</v>
+      </c>
       <c r="T61" s="17"/>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="8"/>
+      <c r="C62" s="11">
+        <v>45278</v>
+      </c>
       <c r="T62" s="17"/>
     </row>
     <row r="63" spans="2:20">
@@ -1926,12 +2140,12 @@
     <mergeCell ref="E53:S53"/>
     <mergeCell ref="E54:S54"/>
     <mergeCell ref="E55:S55"/>
-    <mergeCell ref="E56:S56"/>
-    <mergeCell ref="E57:S57"/>
     <mergeCell ref="E58:S58"/>
     <mergeCell ref="E59:S59"/>
+    <mergeCell ref="E60:S60"/>
     <mergeCell ref="B3:T6"/>
     <mergeCell ref="B43:T46"/>
+    <mergeCell ref="W3:AO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -104,7 +104,8 @@
     <t>Start API for admin (category, product)</t>
   </si>
   <si>
-    <t>Search Product with multi conditions</t>
+    <t>Search Product with multi conditions (native query with jdbctemplate),
+Search category (Jpa)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,6 +847,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,7 +1219,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="14"/>
+      <c r="T3" s="16"/>
       <c r="W3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1240,7 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
-      <c r="AO3" s="14"/>
+      <c r="AO3" s="16"/>
     </row>
     <row r="4" spans="2:41">
       <c r="B4" s="4"/>
@@ -1254,7 +1261,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="15"/>
+      <c r="T4" s="17"/>
       <c r="W4" s="4"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -1273,7 +1280,7 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
-      <c r="AO4" s="15"/>
+      <c r="AO4" s="17"/>
     </row>
     <row r="5" spans="2:41">
       <c r="B5" s="4"/>
@@ -1294,7 +1301,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="17"/>
       <c r="W5" s="4"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1313,7 +1320,7 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="15"/>
+      <c r="AO5" s="17"/>
     </row>
     <row r="6" ht="15.75" spans="2:41">
       <c r="B6" s="6"/>
@@ -1334,7 +1341,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="16"/>
+      <c r="T6" s="18"/>
       <c r="W6" s="6"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -1353,20 +1360,20 @@
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="16"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="2:41">
       <c r="B7" s="8"/>
-      <c r="T7" s="17"/>
+      <c r="T7" s="19"/>
       <c r="W7" s="8"/>
-      <c r="AO7" s="17"/>
+      <c r="AO7" s="19"/>
     </row>
     <row r="8" spans="2:41">
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="19"/>
       <c r="W8" s="8"/>
       <c r="X8" s="1" t="s">
         <v>3</v>
@@ -1377,14 +1384,14 @@
       <c r="AB8" s="1">
         <v>255</v>
       </c>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="19"/>
     </row>
     <row r="9" spans="2:41">
       <c r="B9" s="8"/>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="17"/>
+      <c r="T9" s="19"/>
       <c r="W9" s="8"/>
       <c r="X9" s="1" t="s">
         <v>5</v>
@@ -1395,14 +1402,14 @@
       <c r="AB9" s="1">
         <v>1000</v>
       </c>
-      <c r="AO9" s="17"/>
+      <c r="AO9" s="19"/>
     </row>
     <row r="10" spans="2:41">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="17"/>
+      <c r="T10" s="19"/>
       <c r="W10" s="8"/>
       <c r="X10" s="1" t="s">
         <v>7</v>
@@ -1413,11 +1420,11 @@
       <c r="AB10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO10" s="17"/>
+      <c r="AO10" s="19"/>
     </row>
     <row r="11" spans="2:41">
       <c r="B11" s="8"/>
-      <c r="T11" s="17"/>
+      <c r="T11" s="19"/>
       <c r="W11" s="8"/>
       <c r="X11" s="1" t="s">
         <v>9</v>
@@ -1428,205 +1435,205 @@
       <c r="AF11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AO11" s="17"/>
+      <c r="AO11" s="19"/>
     </row>
     <row r="12" spans="2:41">
       <c r="B12" s="8"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="19"/>
       <c r="W12" s="8"/>
-      <c r="AO12" s="17"/>
+      <c r="AO12" s="19"/>
     </row>
     <row r="13" spans="2:41">
       <c r="B13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="19"/>
       <c r="W13" s="8"/>
-      <c r="AO13" s="17"/>
+      <c r="AO13" s="19"/>
     </row>
     <row r="14" spans="2:41">
       <c r="B14" s="8"/>
-      <c r="T14" s="17"/>
+      <c r="T14" s="19"/>
       <c r="W14" s="8"/>
-      <c r="AO14" s="17"/>
+      <c r="AO14" s="19"/>
     </row>
     <row r="15" spans="2:41">
       <c r="B15" s="8"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="19"/>
       <c r="W15" s="8"/>
-      <c r="AO15" s="17"/>
+      <c r="AO15" s="19"/>
     </row>
     <row r="16" spans="2:41">
       <c r="B16" s="8"/>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="19"/>
       <c r="W16" s="8"/>
-      <c r="AO16" s="17"/>
+      <c r="AO16" s="19"/>
     </row>
     <row r="17" spans="2:41">
       <c r="B17" s="8"/>
-      <c r="T17" s="17"/>
+      <c r="T17" s="19"/>
       <c r="W17" s="8"/>
-      <c r="AO17" s="17"/>
+      <c r="AO17" s="19"/>
     </row>
     <row r="18" spans="2:41">
       <c r="B18" s="8"/>
-      <c r="T18" s="17"/>
+      <c r="T18" s="19"/>
       <c r="W18" s="8"/>
-      <c r="AO18" s="17"/>
+      <c r="AO18" s="19"/>
     </row>
     <row r="19" spans="2:41">
       <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="17"/>
+      <c r="T19" s="19"/>
       <c r="W19" s="8"/>
-      <c r="AO19" s="17"/>
+      <c r="AO19" s="19"/>
     </row>
     <row r="20" spans="2:41">
       <c r="B20" s="8"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="17"/>
+      <c r="T20" s="19"/>
       <c r="W20" s="8"/>
-      <c r="AO20" s="17"/>
+      <c r="AO20" s="19"/>
     </row>
     <row r="21" spans="2:41">
       <c r="B21" s="8"/>
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="17"/>
+      <c r="T21" s="19"/>
       <c r="W21" s="8"/>
-      <c r="AO21" s="17"/>
+      <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="2:41">
       <c r="B22" s="8"/>
-      <c r="T22" s="17"/>
+      <c r="T22" s="19"/>
       <c r="W22" s="8"/>
-      <c r="AO22" s="17"/>
+      <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="2:41">
       <c r="B23" s="8"/>
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="17"/>
+      <c r="T23" s="19"/>
       <c r="W23" s="8"/>
-      <c r="AO23" s="17"/>
+      <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="2:41">
       <c r="B24" s="8"/>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T24" s="17"/>
+      <c r="T24" s="19"/>
       <c r="W24" s="8"/>
-      <c r="AO24" s="17"/>
+      <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="2:41">
       <c r="B25" s="8"/>
-      <c r="T25" s="17"/>
+      <c r="T25" s="19"/>
       <c r="W25" s="8"/>
-      <c r="AO25" s="17"/>
+      <c r="AO25" s="19"/>
     </row>
     <row r="26" spans="2:41">
       <c r="B26" s="8"/>
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="17"/>
+      <c r="T26" s="19"/>
       <c r="W26" s="8"/>
-      <c r="AO26" s="17"/>
+      <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="2:41">
       <c r="B27" s="8"/>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T27" s="17"/>
+      <c r="T27" s="19"/>
       <c r="W27" s="8"/>
-      <c r="AO27" s="17"/>
+      <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="2:41">
       <c r="B28" s="8"/>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="17"/>
+      <c r="T28" s="19"/>
       <c r="W28" s="8"/>
-      <c r="AO28" s="17"/>
+      <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="2:41">
       <c r="B29" s="8"/>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="17"/>
+      <c r="T29" s="19"/>
       <c r="W29" s="8"/>
-      <c r="AO29" s="17"/>
+      <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="2:41">
       <c r="B30" s="8"/>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T30" s="17"/>
+      <c r="T30" s="19"/>
       <c r="W30" s="8"/>
-      <c r="AO30" s="17"/>
+      <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="2:41">
       <c r="B31" s="8"/>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T31" s="17"/>
+      <c r="T31" s="19"/>
       <c r="W31" s="8"/>
-      <c r="AO31" s="17"/>
+      <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="2:41">
       <c r="B32" s="8"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="17"/>
+      <c r="T32" s="19"/>
       <c r="W32" s="8"/>
-      <c r="AO32" s="17"/>
+      <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="2:41">
       <c r="B33" s="8"/>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="17"/>
+      <c r="T33" s="19"/>
       <c r="W33" s="8"/>
-      <c r="AO33" s="17"/>
+      <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="2:41">
       <c r="B34" s="8"/>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="17"/>
+      <c r="T34" s="19"/>
       <c r="W34" s="8"/>
-      <c r="AO34" s="17"/>
+      <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="2:41">
       <c r="B35" s="8"/>
-      <c r="T35" s="17"/>
+      <c r="T35" s="19"/>
       <c r="W35" s="8"/>
-      <c r="AO35" s="17"/>
+      <c r="AO35" s="19"/>
     </row>
     <row r="36" ht="15.75" spans="2:41">
       <c r="B36" s="9"/>
@@ -1647,7 +1654,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="18"/>
+      <c r="T36" s="20"/>
       <c r="W36" s="9"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
@@ -1666,7 +1673,7 @@
       <c r="AL36" s="10"/>
       <c r="AM36" s="10"/>
       <c r="AN36" s="10"/>
-      <c r="AO36" s="18"/>
+      <c r="AO36" s="20"/>
     </row>
     <row r="42" ht="15.75"/>
     <row r="43" spans="2:20">
@@ -1690,7 +1697,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="14"/>
+      <c r="T43" s="16"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="4"/>
@@ -1711,7 +1718,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="15"/>
+      <c r="T44" s="17"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="4"/>
@@ -1732,7 +1739,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="15"/>
+      <c r="T45" s="17"/>
     </row>
     <row r="46" ht="15.75" spans="2:20">
       <c r="B46" s="6"/>
@@ -1753,11 +1760,11 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="16"/>
+      <c r="T46" s="18"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="8"/>
-      <c r="T47" s="17"/>
+      <c r="T47" s="19"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="8"/>
@@ -1782,7 +1789,7 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="17"/>
+      <c r="T48" s="19"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="8"/>
@@ -1807,7 +1814,7 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="17"/>
+      <c r="T49" s="19"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="8"/>
@@ -1832,7 +1839,7 @@
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="17"/>
+      <c r="T50" s="19"/>
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="8"/>
@@ -1855,7 +1862,7 @@
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
-      <c r="T51" s="17"/>
+      <c r="T51" s="19"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="8"/>
@@ -1878,7 +1885,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
-      <c r="T52" s="17"/>
+      <c r="T52" s="19"/>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="8"/>
@@ -1903,7 +1910,7 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
-      <c r="T53" s="17"/>
+      <c r="T53" s="19"/>
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="8"/>
@@ -1928,7 +1935,7 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
-      <c r="T54" s="17"/>
+      <c r="T54" s="19"/>
     </row>
     <row r="55" spans="2:20">
       <c r="B55" s="8"/>
@@ -1953,7 +1960,7 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
-      <c r="T55" s="17"/>
+      <c r="T55" s="19"/>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="8"/>
@@ -1961,7 +1968,7 @@
         <v>45272</v>
       </c>
       <c r="D56" s="12"/>
-      <c r="T56" s="17"/>
+      <c r="T56" s="19"/>
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="8"/>
@@ -1969,7 +1976,7 @@
         <v>45273</v>
       </c>
       <c r="D57" s="12"/>
-      <c r="T57" s="17"/>
+      <c r="T57" s="19"/>
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="8"/>
@@ -1992,7 +1999,7 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="17"/>
+      <c r="T58" s="19"/>
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="8"/>
@@ -2017,14 +2024,14 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="17"/>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="T59" s="19"/>
+    </row>
+    <row r="60" ht="39" customHeight="1" spans="2:20">
       <c r="B60" s="8"/>
-      <c r="C60" s="11">
-        <v>45276</v>
-      </c>
-      <c r="E60" s="13" t="s">
+      <c r="C60" s="14">
+        <v>45287</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F60" s="13"/>
@@ -2041,73 +2048,69 @@
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="17"/>
+      <c r="T60" s="19"/>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="8"/>
-      <c r="C61" s="11">
-        <v>45277</v>
-      </c>
-      <c r="T61" s="17"/>
+      <c r="C61" s="11"/>
+      <c r="T61" s="19"/>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="8"/>
-      <c r="C62" s="11">
-        <v>45278</v>
-      </c>
-      <c r="T62" s="17"/>
+      <c r="C62" s="11"/>
+      <c r="T62" s="19"/>
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="8"/>
-      <c r="T63" s="17"/>
+      <c r="T63" s="19"/>
     </row>
     <row r="64" spans="2:20">
       <c r="B64" s="8"/>
-      <c r="T64" s="17"/>
+      <c r="T64" s="19"/>
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="8"/>
-      <c r="T65" s="17"/>
+      <c r="T65" s="19"/>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="8"/>
-      <c r="T66" s="17"/>
+      <c r="T66" s="19"/>
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="8"/>
-      <c r="T67" s="17"/>
+      <c r="T67" s="19"/>
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="8"/>
-      <c r="T68" s="17"/>
+      <c r="T68" s="19"/>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="8"/>
-      <c r="T69" s="17"/>
+      <c r="T69" s="19"/>
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="8"/>
-      <c r="T70" s="17"/>
+      <c r="T70" s="19"/>
     </row>
     <row r="71" spans="2:20">
       <c r="B71" s="8"/>
-      <c r="T71" s="17"/>
+      <c r="T71" s="19"/>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="8"/>
-      <c r="T72" s="17"/>
+      <c r="T72" s="19"/>
     </row>
     <row r="73" spans="2:20">
       <c r="B73" s="8"/>
-      <c r="T73" s="17"/>
+      <c r="T73" s="19"/>
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="8"/>
-      <c r="T74" s="17"/>
+      <c r="T74" s="19"/>
     </row>
     <row r="75" spans="2:20">
       <c r="B75" s="8"/>
-      <c r="T75" s="17"/>
+      <c r="T75" s="19"/>
     </row>
     <row r="76" ht="15.75" spans="2:20">
       <c r="B76" s="9"/>
@@ -2128,7 +2131,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
-      <c r="T76" s="18"/>
+      <c r="T76" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Planing API</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>Search Product with multi conditions (native query with jdbctemplate),
 Search category (Jpa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Order, Payment, Get Order </t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
   <dimension ref="B2:AO76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:S60"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2052,7 +2055,12 @@
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="8"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="11">
+        <v>45290</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="2:20">

--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API_List" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Planing API</t>
   </si>
@@ -109,20 +110,93 @@
   </si>
   <si>
     <t xml:space="preserve">Create Order, Payment, Get Order </t>
+  </si>
+  <si>
+    <t>PC 13500</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>I5 13500 (Old), 36 months guaranteer</t>
+  </si>
+  <si>
+    <t>I5 12400 (Old), 36 months guaranteer</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>B760M 2xDDr4</t>
+  </si>
+  <si>
+    <t>H610 2xDDr4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM KINGSTON FURY BEAST 16GB 5200MHZ DDR5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM KINGSTON FURY BEAST 16GB DDR4 </t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>SSD KINGSTON NV2 1TB - PCIE GEN 4.0 X 4 NVME M.2</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>NGUỒN XIGMATEK X-PRO XP650 - 600W</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>CASE XIGMATEK HERO II AIR 3F - SẴN 3 FAN Z20F</t>
+  </si>
+  <si>
+    <t>Fan, Opts</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PC 12700</t>
+  </si>
+  <si>
+    <t>I7 12700 (Old), 36 months guaranteer</t>
+  </si>
+  <si>
+    <t>B660M 2xDDr4</t>
+  </si>
+  <si>
+    <t>Xigmatek X-Pro | 550W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +209,26 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -488,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -523,6 +617,52 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +703,37 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,182 +863,259 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,957 +1437,957 @@
   <sheetPr/>
   <dimension ref="B2:AO76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.1428571428571" style="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="11.1428571428571" style="36"/>
+    <col min="4" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="2" ht="15.75"/>
     <row r="3" spans="2:41">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="16"/>
-      <c r="W3" s="2" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="51"/>
+      <c r="W3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="16"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="51"/>
     </row>
     <row r="4" spans="2:41">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="17"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="17"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="52"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="52"/>
     </row>
     <row r="5" spans="2:41">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="17"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="17"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="52"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="52"/>
     </row>
     <row r="6" ht="15.75" spans="2:41">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="18"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="18"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="53"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="53"/>
     </row>
     <row r="7" spans="2:41">
-      <c r="B7" s="8"/>
-      <c r="T7" s="19"/>
-      <c r="W7" s="8"/>
-      <c r="AO7" s="19"/>
+      <c r="B7" s="43"/>
+      <c r="T7" s="54"/>
+      <c r="W7" s="43"/>
+      <c r="AO7" s="54"/>
     </row>
     <row r="8" spans="2:41">
-      <c r="B8" s="8"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="1" t="s">
+      <c r="T8" s="54"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="36">
         <v>50</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="36">
         <v>255</v>
       </c>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="54"/>
     </row>
     <row r="9" spans="2:41">
-      <c r="B9" s="8"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="43"/>
+      <c r="D9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="1" t="s">
+      <c r="T9" s="54"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="36">
         <v>255</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="36">
         <v>1000</v>
       </c>
-      <c r="AO9" s="19"/>
+      <c r="AO9" s="54"/>
     </row>
     <row r="10" spans="2:41">
-      <c r="B10" s="8"/>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="43"/>
+      <c r="E10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="1" t="s">
+      <c r="T10" s="54"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="36">
         <v>10000</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AO10" s="19"/>
+      <c r="AO10" s="54"/>
     </row>
     <row r="11" spans="2:41">
-      <c r="B11" s="8"/>
-      <c r="T11" s="19"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="1" t="s">
+      <c r="B11" s="43"/>
+      <c r="T11" s="54"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AO11" s="19"/>
+      <c r="AO11" s="54"/>
     </row>
     <row r="12" spans="2:41">
-      <c r="B12" s="8"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="43"/>
+      <c r="D12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="W12" s="8"/>
-      <c r="AO12" s="19"/>
+      <c r="T12" s="54"/>
+      <c r="W12" s="43"/>
+      <c r="AO12" s="54"/>
     </row>
     <row r="13" spans="2:41">
-      <c r="B13" s="8"/>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="43"/>
+      <c r="E13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="W13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="T13" s="54"/>
+      <c r="W13" s="43"/>
+      <c r="AO13" s="54"/>
     </row>
     <row r="14" spans="2:41">
-      <c r="B14" s="8"/>
-      <c r="T14" s="19"/>
-      <c r="W14" s="8"/>
-      <c r="AO14" s="19"/>
+      <c r="B14" s="43"/>
+      <c r="T14" s="54"/>
+      <c r="W14" s="43"/>
+      <c r="AO14" s="54"/>
     </row>
     <row r="15" spans="2:41">
-      <c r="B15" s="8"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="43"/>
+      <c r="D15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="W15" s="8"/>
-      <c r="AO15" s="19"/>
+      <c r="T15" s="54"/>
+      <c r="W15" s="43"/>
+      <c r="AO15" s="54"/>
     </row>
     <row r="16" spans="2:41">
-      <c r="B16" s="8"/>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="43"/>
+      <c r="E16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="19"/>
-      <c r="W16" s="8"/>
-      <c r="AO16" s="19"/>
+      <c r="T16" s="54"/>
+      <c r="W16" s="43"/>
+      <c r="AO16" s="54"/>
     </row>
     <row r="17" spans="2:41">
-      <c r="B17" s="8"/>
-      <c r="T17" s="19"/>
-      <c r="W17" s="8"/>
-      <c r="AO17" s="19"/>
+      <c r="B17" s="43"/>
+      <c r="T17" s="54"/>
+      <c r="W17" s="43"/>
+      <c r="AO17" s="54"/>
     </row>
     <row r="18" spans="2:41">
-      <c r="B18" s="8"/>
-      <c r="T18" s="19"/>
-      <c r="W18" s="8"/>
-      <c r="AO18" s="19"/>
+      <c r="B18" s="43"/>
+      <c r="T18" s="54"/>
+      <c r="W18" s="43"/>
+      <c r="AO18" s="54"/>
     </row>
     <row r="19" spans="2:41">
-      <c r="B19" s="8"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="19"/>
-      <c r="W19" s="8"/>
-      <c r="AO19" s="19"/>
+      <c r="T19" s="54"/>
+      <c r="W19" s="43"/>
+      <c r="AO19" s="54"/>
     </row>
     <row r="20" spans="2:41">
-      <c r="B20" s="8"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="43"/>
+      <c r="D20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="W20" s="8"/>
-      <c r="AO20" s="19"/>
+      <c r="T20" s="54"/>
+      <c r="W20" s="43"/>
+      <c r="AO20" s="54"/>
     </row>
     <row r="21" spans="2:41">
-      <c r="B21" s="8"/>
-      <c r="E21" s="1" t="s">
+      <c r="B21" s="43"/>
+      <c r="E21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="19"/>
-      <c r="W21" s="8"/>
-      <c r="AO21" s="19"/>
+      <c r="T21" s="54"/>
+      <c r="W21" s="43"/>
+      <c r="AO21" s="54"/>
     </row>
     <row r="22" spans="2:41">
-      <c r="B22" s="8"/>
-      <c r="T22" s="19"/>
-      <c r="W22" s="8"/>
-      <c r="AO22" s="19"/>
+      <c r="B22" s="43"/>
+      <c r="T22" s="54"/>
+      <c r="W22" s="43"/>
+      <c r="AO22" s="54"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="8"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="43"/>
+      <c r="D23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="W23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="T23" s="54"/>
+      <c r="W23" s="43"/>
+      <c r="AO23" s="54"/>
     </row>
     <row r="24" spans="2:41">
-      <c r="B24" s="8"/>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="43"/>
+      <c r="E24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="W24" s="8"/>
-      <c r="AO24" s="19"/>
+      <c r="T24" s="54"/>
+      <c r="W24" s="43"/>
+      <c r="AO24" s="54"/>
     </row>
     <row r="25" spans="2:41">
-      <c r="B25" s="8"/>
-      <c r="T25" s="19"/>
-      <c r="W25" s="8"/>
-      <c r="AO25" s="19"/>
+      <c r="B25" s="43"/>
+      <c r="T25" s="54"/>
+      <c r="W25" s="43"/>
+      <c r="AO25" s="54"/>
     </row>
     <row r="26" spans="2:41">
-      <c r="B26" s="8"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="43"/>
+      <c r="D26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="19"/>
-      <c r="W26" s="8"/>
-      <c r="AO26" s="19"/>
+      <c r="T26" s="54"/>
+      <c r="W26" s="43"/>
+      <c r="AO26" s="54"/>
     </row>
     <row r="27" spans="2:41">
-      <c r="B27" s="8"/>
-      <c r="E27" s="1" t="s">
+      <c r="B27" s="43"/>
+      <c r="E27" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T27" s="19"/>
-      <c r="W27" s="8"/>
-      <c r="AO27" s="19"/>
+      <c r="T27" s="54"/>
+      <c r="W27" s="43"/>
+      <c r="AO27" s="54"/>
     </row>
     <row r="28" spans="2:41">
-      <c r="B28" s="8"/>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="43"/>
+      <c r="E28" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="19"/>
-      <c r="W28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="T28" s="54"/>
+      <c r="W28" s="43"/>
+      <c r="AO28" s="54"/>
     </row>
     <row r="29" spans="2:41">
-      <c r="B29" s="8"/>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="43"/>
+      <c r="D29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="19"/>
-      <c r="W29" s="8"/>
-      <c r="AO29" s="19"/>
+      <c r="T29" s="54"/>
+      <c r="W29" s="43"/>
+      <c r="AO29" s="54"/>
     </row>
     <row r="30" spans="2:41">
-      <c r="B30" s="8"/>
-      <c r="E30" s="1" t="s">
+      <c r="B30" s="43"/>
+      <c r="E30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T30" s="19"/>
-      <c r="W30" s="8"/>
-      <c r="AO30" s="19"/>
+      <c r="T30" s="54"/>
+      <c r="W30" s="43"/>
+      <c r="AO30" s="54"/>
     </row>
     <row r="31" spans="2:41">
-      <c r="B31" s="8"/>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="43"/>
+      <c r="D31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T31" s="19"/>
-      <c r="W31" s="8"/>
-      <c r="AO31" s="19"/>
+      <c r="T31" s="54"/>
+      <c r="W31" s="43"/>
+      <c r="AO31" s="54"/>
     </row>
     <row r="32" spans="2:41">
-      <c r="B32" s="8"/>
-      <c r="E32" s="1" t="s">
+      <c r="B32" s="43"/>
+      <c r="E32" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="19"/>
-      <c r="W32" s="8"/>
-      <c r="AO32" s="19"/>
+      <c r="T32" s="54"/>
+      <c r="W32" s="43"/>
+      <c r="AO32" s="54"/>
     </row>
     <row r="33" spans="2:41">
-      <c r="B33" s="8"/>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="43"/>
+      <c r="D33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="19"/>
-      <c r="W33" s="8"/>
-      <c r="AO33" s="19"/>
+      <c r="T33" s="54"/>
+      <c r="W33" s="43"/>
+      <c r="AO33" s="54"/>
     </row>
     <row r="34" spans="2:41">
-      <c r="B34" s="8"/>
-      <c r="E34" s="1" t="s">
+      <c r="B34" s="43"/>
+      <c r="E34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="19"/>
-      <c r="W34" s="8"/>
-      <c r="AO34" s="19"/>
+      <c r="T34" s="54"/>
+      <c r="W34" s="43"/>
+      <c r="AO34" s="54"/>
     </row>
     <row r="35" spans="2:41">
-      <c r="B35" s="8"/>
-      <c r="T35" s="19"/>
-      <c r="W35" s="8"/>
-      <c r="AO35" s="19"/>
+      <c r="B35" s="43"/>
+      <c r="T35" s="54"/>
+      <c r="W35" s="43"/>
+      <c r="AO35" s="54"/>
     </row>
     <row r="36" ht="15.75" spans="2:41">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="20"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="20"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="55"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="55"/>
     </row>
     <row r="42" ht="15.75"/>
     <row r="43" spans="2:20">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="16"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="51"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="17"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="52"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="17"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="52"/>
     </row>
     <row r="46" ht="15.75" spans="2:20">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="18"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="53"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="8"/>
-      <c r="T47" s="19"/>
+      <c r="B47" s="43"/>
+      <c r="T47" s="54"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="8"/>
-      <c r="C48" s="11">
+      <c r="B48" s="43"/>
+      <c r="C48" s="46">
         <v>45264</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="47"/>
+      <c r="E48" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="19"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="54"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="8"/>
-      <c r="C49" s="11">
+      <c r="B49" s="43"/>
+      <c r="C49" s="46">
         <v>45265</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="47"/>
+      <c r="E49" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="19"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="54"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="8"/>
-      <c r="C50" s="11">
+      <c r="B50" s="43"/>
+      <c r="C50" s="46">
         <v>45266</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13" t="s">
+      <c r="D50" s="47"/>
+      <c r="E50" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="19"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="54"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="8"/>
-      <c r="C51" s="11">
+      <c r="B51" s="43"/>
+      <c r="C51" s="46">
         <v>45267</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="19"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="54"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="8"/>
-      <c r="C52" s="11">
+      <c r="B52" s="43"/>
+      <c r="C52" s="46">
         <v>45268</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="19"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="54"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="8"/>
-      <c r="C53" s="11">
+      <c r="B53" s="43"/>
+      <c r="C53" s="46">
         <v>45269</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13" t="s">
+      <c r="D53" s="47"/>
+      <c r="E53" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="19"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="54"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="8"/>
-      <c r="C54" s="11">
+      <c r="B54" s="43"/>
+      <c r="C54" s="46">
         <v>45270</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13" t="s">
+      <c r="D54" s="47"/>
+      <c r="E54" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="19"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="54"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="8"/>
-      <c r="C55" s="11">
+      <c r="B55" s="43"/>
+      <c r="C55" s="46">
         <v>45271</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13" t="s">
+      <c r="D55" s="47"/>
+      <c r="E55" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="19"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="54"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="8"/>
-      <c r="C56" s="11">
+      <c r="B56" s="43"/>
+      <c r="C56" s="46">
         <v>45272</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="T56" s="19"/>
+      <c r="D56" s="47"/>
+      <c r="T56" s="54"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="8"/>
-      <c r="C57" s="11">
+      <c r="B57" s="43"/>
+      <c r="C57" s="46">
         <v>45273</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="T57" s="19"/>
+      <c r="D57" s="47"/>
+      <c r="T57" s="54"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="8"/>
-      <c r="C58" s="11">
+      <c r="B58" s="43"/>
+      <c r="C58" s="46">
         <v>45274</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="19"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="54"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="8"/>
-      <c r="C59" s="11">
+      <c r="B59" s="43"/>
+      <c r="C59" s="46">
         <v>45275</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="19"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="54"/>
     </row>
     <row r="60" ht="39" customHeight="1" spans="2:20">
-      <c r="B60" s="8"/>
-      <c r="C60" s="14">
+      <c r="B60" s="43"/>
+      <c r="C60" s="49">
         <v>45287</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="19"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="54"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="8"/>
-      <c r="C61" s="11">
+      <c r="B61" s="43"/>
+      <c r="C61" s="46">
         <v>45290</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="19"/>
+      <c r="T61" s="54"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="8"/>
-      <c r="C62" s="11"/>
-      <c r="T62" s="19"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="46"/>
+      <c r="T62" s="54"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="8"/>
-      <c r="T63" s="19"/>
+      <c r="B63" s="43"/>
+      <c r="T63" s="54"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="8"/>
-      <c r="T64" s="19"/>
+      <c r="B64" s="43"/>
+      <c r="T64" s="54"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="8"/>
-      <c r="T65" s="19"/>
+      <c r="B65" s="43"/>
+      <c r="T65" s="54"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="8"/>
-      <c r="T66" s="19"/>
+      <c r="B66" s="43"/>
+      <c r="T66" s="54"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="8"/>
-      <c r="T67" s="19"/>
+      <c r="B67" s="43"/>
+      <c r="T67" s="54"/>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="8"/>
-      <c r="T68" s="19"/>
+      <c r="B68" s="43"/>
+      <c r="T68" s="54"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="8"/>
-      <c r="T69" s="19"/>
+      <c r="B69" s="43"/>
+      <c r="T69" s="54"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="8"/>
-      <c r="T70" s="19"/>
+      <c r="B70" s="43"/>
+      <c r="T70" s="54"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="8"/>
-      <c r="T71" s="19"/>
+      <c r="B71" s="43"/>
+      <c r="T71" s="54"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="8"/>
-      <c r="T72" s="19"/>
+      <c r="B72" s="43"/>
+      <c r="T72" s="54"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="8"/>
-      <c r="T73" s="19"/>
+      <c r="B73" s="43"/>
+      <c r="T73" s="54"/>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="8"/>
-      <c r="T74" s="19"/>
+      <c r="B74" s="43"/>
+      <c r="T74" s="54"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="8"/>
-      <c r="T75" s="19"/>
+      <c r="B75" s="43"/>
+      <c r="T75" s="54"/>
     </row>
     <row r="76" ht="15.75" spans="2:20">
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="20"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2161,4 +2409,1119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:AB42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12:Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="11.1428571428571" style="1"/>
+    <col min="10" max="23" width="9.14285714285714" style="1"/>
+    <col min="24" max="24" width="10" style="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="15.75"/>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="14"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="14"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="17">
+        <v>5490000</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="17">
+        <v>3450000</v>
+      </c>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="20">
+        <v>2390000</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="20">
+        <v>1890000</v>
+      </c>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="20">
+        <v>1290000</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="15"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="20">
+        <v>880000</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="15"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="20">
+        <v>1390000</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="15"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="20">
+        <v>1390000</v>
+      </c>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="15"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="20">
+        <v>850000</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="15"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="20">
+        <v>850000</v>
+      </c>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="15"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="20">
+        <v>550000</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="15"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="20">
+        <v>550000</v>
+      </c>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="15"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="15"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="15"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="31">
+        <f>SUM(I6:J19)</f>
+        <v>11960000</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="15"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="31">
+        <f>SUM(X6:Y19)</f>
+        <v>9010000</v>
+      </c>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:28">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="33"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="33"/>
+    </row>
+    <row r="24" ht="15.75" spans="24:24">
+      <c r="X24" s="34"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="17">
+        <v>6350000</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="15"/>
+      <c r="U28" s="35"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="20">
+        <v>2390000</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="20">
+        <v>1299000</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="20">
+        <v>1370000</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="24"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="20">
+        <v>830000</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="20">
+        <v>605000</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="31">
+        <f>SUM(I27:J40)</f>
+        <v>12844000</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" ht="15.75" spans="1:13">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="X10:Y11"/>
+    <mergeCell ref="Z10:AA11"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="Z16:AA17"/>
+    <mergeCell ref="X18:Y19"/>
+    <mergeCell ref="Z18:AA19"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="C33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="C35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="C37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="C39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="R6:W7"/>
+    <mergeCell ref="R8:W9"/>
+    <mergeCell ref="R10:W11"/>
+    <mergeCell ref="R12:W13"/>
+    <mergeCell ref="R14:W15"/>
+    <mergeCell ref="R16:W17"/>
+    <mergeCell ref="R18:W19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6:L7" r:id="rId1" display="Link"/>
+    <hyperlink ref="K8:L9" r:id="rId2" display="Link"/>
+    <hyperlink ref="K10:L11" r:id="rId3" display="Link"/>
+    <hyperlink ref="K12:L13" r:id="rId4" display="Link"/>
+    <hyperlink ref="K14:L15" r:id="rId5" display="Link"/>
+    <hyperlink ref="K16:L17" r:id="rId6" display="Link"/>
+    <hyperlink ref="K27:L28" r:id="rId7" display="Link"/>
+    <hyperlink ref="K29:L30" r:id="rId8" display="Link"/>
+    <hyperlink ref="K31:L32" r:id="rId9" display="Link"/>
+    <hyperlink ref="K33:L34" r:id="rId10" display="Link"/>
+    <hyperlink ref="K35:L36" r:id="rId11" display="Link"/>
+    <hyperlink ref="K37:L38" r:id="rId12" display="Link"/>
+    <hyperlink ref="Z6:AA7" r:id="rId13" display="Link"/>
+    <hyperlink ref="Z8:AA9" r:id="rId14" display="Link"/>
+    <hyperlink ref="Z10:AA11" r:id="rId15" display="Link"/>
+    <hyperlink ref="Z12:AA13" r:id="rId4" display="Link"/>
+    <hyperlink ref="Z14:AA15" r:id="rId5" display="Link"/>
+    <hyperlink ref="Z16:AA17" r:id="rId6" display="Link"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>